--- a/src/main/resources/tmp1.xlsx
+++ b/src/main/resources/tmp1.xlsx
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
